--- a/Datasets/Beginning of vaccinations.xlsx
+++ b/Datasets/Beginning of vaccinations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/144f6edc6fc9e5c6/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\DS-Assignment\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C93EC7A0-F759-4F48-8329-CDCD44F554AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29D4A68-7105-4D96-8E2F-48FAEFA441CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4646" yWindow="6429" windowWidth="23983" windowHeight="13594" xr2:uid="{5F542515-FD7F-4C7D-A6A7-6ABE32DF33CC}"/>
+    <workbookView xWindow="2074" yWindow="1131" windowWidth="23983" windowHeight="13595" xr2:uid="{5F542515-FD7F-4C7D-A6A7-6ABE32DF33CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>https://www.koreatimes.co.kr/www/nation/2021/02/119_304653.html</t>
   </si>
   <si>
-    <t>17/02/2021</t>
-  </si>
-  <si>
     <t>https://cio.go.jp/c19vaccine_dashboard</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>Source</t>
+  </si>
+  <si>
+    <t>12/04/2021</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -484,10 +484,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="34.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -506,10 +506,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -517,10 +517,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -528,10 +528,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -550,10 +550,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -561,10 +561,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Datasets/Beginning of vaccinations.xlsx
+++ b/Datasets/Beginning of vaccinations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\DS-Assignment\Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29D4A68-7105-4D96-8E2F-48FAEFA441CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE21FE67-FC04-48B2-BA5D-13A4BD65F9BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2074" yWindow="1131" windowWidth="23983" windowHeight="13595" xr2:uid="{5F542515-FD7F-4C7D-A6A7-6ABE32DF33CC}"/>
+    <workbookView xWindow="4646" yWindow="4920" windowWidth="23983" windowHeight="13594" xr2:uid="{5F542515-FD7F-4C7D-A6A7-6ABE32DF33CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
     <t>Source</t>
   </si>
   <si>
-    <t>12/04/2021</t>
+    <t>17/02/2021</t>
   </si>
 </sst>
 </file>
@@ -471,7 +471,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
